--- a/artfynd/A 24409-2021.xlsx
+++ b/artfynd/A 24409-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4561,6 +4561,130 @@
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111702865</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>557511</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7314093</v>
+      </c>
+      <c r="S35" t="n">
+        <v>127</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Erik Owusu-Ansah</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Erik Owusu-Ansah</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 24409-2021.xlsx
+++ b/artfynd/A 24409-2021.xlsx
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66544522</v>
+        <v>93615239</v>
       </c>
       <c r="B4" t="n">
-        <v>89412</v>
+        <v>56812</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,37 +938,49 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>102999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björktrast</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Turdus pilaris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nabbnäs E, Ly lm</t>
+          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>557343.9500621258</v>
+        <v>557511.0569535147</v>
       </c>
       <c r="R4" t="n">
-        <v>7313805.357225817</v>
+        <v>7314093.299974133</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -992,22 +1004,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1018,31 +1030,26 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>25250</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Bernt-Erik Nordenström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Bernt-Erik Nordenström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66544516</v>
+        <v>86238581</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>55504</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,41 +1058,57 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>102931</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bläsand</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Mareca penelope</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nabbnäs E, Ly lm</t>
+          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>557811.1036065554</v>
+        <v>557511.0569535147</v>
       </c>
       <c r="R5" t="n">
-        <v>7313445.641976926</v>
+        <v>7314093.299974133</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1109,7 +1132,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1119,7 +1142,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1135,31 +1158,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>25244</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Petter Nordvander</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Petter Nordvander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66544518</v>
+        <v>111702865</v>
       </c>
       <c r="B6" t="n">
-        <v>78602</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,41 +1186,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Nabbnäs E, Ly lm</t>
+          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557811.1036065554</v>
+        <v>557511</v>
       </c>
       <c r="R6" t="n">
-        <v>7313445.641976926</v>
+        <v>7314093</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1226,22 +1256,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-09-05</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1252,31 +1282,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>25246</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Erik Owusu-Ansah</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Erik Owusu-Ansah</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66544521</v>
+        <v>66544522</v>
       </c>
       <c r="B7" t="n">
-        <v>77177</v>
+        <v>89412</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,21 +1314,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1338,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557552.5743103321</v>
+        <v>557343.9500621258</v>
       </c>
       <c r="R7" t="n">
-        <v>7313818.131272775</v>
+        <v>7313805.357225817</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1372,7 +1397,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>25249</t>
+          <t>25250</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1390,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66544517</v>
+        <v>66544521</v>
       </c>
       <c r="B8" t="n">
-        <v>78503</v>
+        <v>77177</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,25 +1427,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1430,10 +1455,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557811.1036065554</v>
+        <v>557552.5743103321</v>
       </c>
       <c r="R8" t="n">
-        <v>7313445.641976926</v>
+        <v>7313818.131272775</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1489,7 +1514,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>25245</t>
+          <t>25249</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1500,7 +1525,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1624,10 +1649,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93615239</v>
+        <v>93819789</v>
       </c>
       <c r="B10" t="n">
-        <v>56812</v>
+        <v>57193</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,16 +1665,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102999</v>
+        <v>206004</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1659,30 +1684,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
+          <t>Gautsträsk, Ammarnäs, Ammarnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557511.0569535147</v>
+        <v>557932.0448319349</v>
       </c>
       <c r="R10" t="n">
-        <v>7314093.299974133</v>
+        <v>7313851.940869053</v>
       </c>
       <c r="S10" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1706,22 +1727,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1736,22 +1757,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bernt-Erik Nordenström</t>
+          <t>Rolf Segerstedt</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bernt-Erik Nordenström</t>
+          <t>Rolf Segerstedt</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>93819789</v>
+        <v>95181786</v>
       </c>
       <c r="B11" t="n">
-        <v>57193</v>
+        <v>89317</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1764,42 +1785,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>206004</v>
+        <v>3242</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Gautsträsk, Ammarnäs, Ammarnäs, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557932.0448319349</v>
+        <v>557659.3462767266</v>
       </c>
       <c r="R11" t="n">
-        <v>7313851.940869053</v>
+        <v>7313753.322394</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1826,7 +1840,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1836,7 +1850,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1856,22 +1870,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Rolf Segerstedt</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Rolf Segerstedt</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95133646</v>
+        <v>106068564</v>
       </c>
       <c r="B12" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,16 +1898,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1904,20 +1918,25 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>557549.2252521986</v>
+        <v>557341.094957336</v>
       </c>
       <c r="R12" t="n">
-        <v>7313517.938556333</v>
+        <v>7314415.254025667</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1941,7 +1960,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1951,7 +1970,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1971,22 +1990,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95133123</v>
+        <v>106068609</v>
       </c>
       <c r="B13" t="n">
-        <v>78072</v>
+        <v>56540</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1999,38 +2018,49 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229821</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557451.3615532392</v>
+        <v>557178.5243778926</v>
       </c>
       <c r="R13" t="n">
-        <v>7313525.767571403</v>
+        <v>7314676.100958445</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2054,7 +2084,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2064,7 +2094,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2084,22 +2114,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95133125</v>
+        <v>106181512</v>
       </c>
       <c r="B14" t="n">
-        <v>78098</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,38 +2142,45 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Börtingtjärn, Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>557451.3615532392</v>
+        <v>557563.1252945462</v>
       </c>
       <c r="R14" t="n">
-        <v>7313525.767571403</v>
+        <v>7313923.278383149</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2167,7 +2204,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2177,12 +2214,17 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Rinhack. Tämligen färskt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2197,22 +2239,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95133810</v>
+        <v>106181822</v>
       </c>
       <c r="B15" t="n">
-        <v>89317</v>
+        <v>56395</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,35 +2267,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3242</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Börtingtjärn, Nabbnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>557561.2011936309</v>
+        <v>557150.1442167946</v>
       </c>
       <c r="R15" t="n">
-        <v>7313613.325183534</v>
+        <v>7314562.870367996</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2280,7 +2329,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2290,7 +2339,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2310,22 +2359,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95132995</v>
+        <v>66544516</v>
       </c>
       <c r="B16" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2334,42 +2383,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Nabbnäs E, Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557469.5464570362</v>
+        <v>557811.1036065554</v>
       </c>
       <c r="R16" t="n">
-        <v>7313597.186250712</v>
+        <v>7313445.641976926</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2393,7 +2441,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2403,7 +2451,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2419,26 +2467,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>25244</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95133000</v>
+        <v>66544518</v>
       </c>
       <c r="B17" t="n">
-        <v>78437</v>
+        <v>78602</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,42 +2500,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2080</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Nabbnäs E, Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557469.5464570362</v>
+        <v>557811.1036065554</v>
       </c>
       <c r="R17" t="n">
-        <v>7313597.186250712</v>
+        <v>7313445.641976926</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2506,7 +2558,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2516,7 +2568,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2532,26 +2584,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>25246</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95133592</v>
+        <v>66544517</v>
       </c>
       <c r="B18" t="n">
-        <v>89388</v>
+        <v>78503</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,42 +2617,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sorsele, Ly lm</t>
+          <t>Nabbnäs E, Ly lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557494.3515170069</v>
+        <v>557811.1036065554</v>
       </c>
       <c r="R18" t="n">
-        <v>7313522.549664274</v>
+        <v>7313445.641976926</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2619,7 +2675,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2629,7 +2685,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2014-09-05</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2645,26 +2701,31 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>25245</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95133831</v>
+        <v>95133646</v>
       </c>
       <c r="B19" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,16 +2738,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2704,10 +2765,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>557561.2011936309</v>
+        <v>557549.2252521986</v>
       </c>
       <c r="R19" t="n">
-        <v>7313613.325183534</v>
+        <v>7313517.938556333</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2750,11 +2811,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2781,10 +2837,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95133764</v>
+        <v>95133123</v>
       </c>
       <c r="B20" t="n">
-        <v>89317</v>
+        <v>78072</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,21 +2853,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3242</v>
+        <v>229821</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2822,10 +2878,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>557565.6280339119</v>
+        <v>557451.3615532392</v>
       </c>
       <c r="R20" t="n">
-        <v>7313576.255149641</v>
+        <v>7313525.767571403</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2894,10 +2950,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>95133725</v>
+        <v>95133125</v>
       </c>
       <c r="B21" t="n">
-        <v>73698</v>
+        <v>78098</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2910,21 +2966,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1467</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2935,10 +2991,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>557541.3539947418</v>
+        <v>557451.3615532392</v>
       </c>
       <c r="R21" t="n">
-        <v>7313523.088473954</v>
+        <v>7313525.767571403</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3007,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>95181786</v>
+        <v>95133810</v>
       </c>
       <c r="B22" t="n">
         <v>89317</v>
@@ -3048,10 +3104,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>557659.3462767266</v>
+        <v>557561.2011936309</v>
       </c>
       <c r="R22" t="n">
-        <v>7313753.322394</v>
+        <v>7313613.325183534</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3108,22 +3164,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95181707</v>
+        <v>95132995</v>
       </c>
       <c r="B23" t="n">
-        <v>89410</v>
+        <v>78503</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3132,25 +3188,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3161,10 +3217,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>557628.5280401763</v>
+        <v>557469.5464570362</v>
       </c>
       <c r="R23" t="n">
-        <v>7313660.009347937</v>
+        <v>7313597.186250712</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3221,22 +3277,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95181737</v>
+        <v>95133000</v>
       </c>
       <c r="B24" t="n">
-        <v>89742</v>
+        <v>78437</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3245,25 +3301,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1506</v>
+        <v>2080</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3274,10 +3330,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>557652.6369780133</v>
+        <v>557469.5464570362</v>
       </c>
       <c r="R24" t="n">
-        <v>7313660.496240489</v>
+        <v>7313597.186250712</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3334,22 +3390,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>98386022</v>
+        <v>95133592</v>
       </c>
       <c r="B25" t="n">
-        <v>56540</v>
+        <v>89388</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3362,44 +3418,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>103021</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>557499.7120975225</v>
+        <v>557494.3515170069</v>
       </c>
       <c r="R25" t="n">
-        <v>7313662.311308526</v>
+        <v>7313522.549664274</v>
       </c>
       <c r="S25" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3423,7 +3473,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3433,7 +3483,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3453,19 +3503,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>105524543</v>
+        <v>95133831</v>
       </c>
       <c r="B26" t="n">
         <v>56395</v>
@@ -3501,25 +3551,20 @@
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Ribbo, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>557722.2764535763</v>
+        <v>557561.2011936309</v>
       </c>
       <c r="R26" t="n">
-        <v>7313451.194894779</v>
+        <v>7313613.325183534</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3543,7 +3588,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3553,12 +3598,17 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3573,22 +3623,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>105524498</v>
+        <v>95133764</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>89317</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3601,45 +3651,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>3242</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ribbo, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>557627.1049988176</v>
+        <v>557565.6280339119</v>
       </c>
       <c r="R27" t="n">
-        <v>7313224.253787322</v>
+        <v>7313576.255149641</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3663,7 +3706,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3673,7 +3716,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3693,22 +3736,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>105524457</v>
+        <v>95133725</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>73698</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3721,45 +3764,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Ribbo, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>557498.2867395905</v>
+        <v>557541.3539947418</v>
       </c>
       <c r="R28" t="n">
-        <v>7313286.590600722</v>
+        <v>7313523.088473954</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3783,7 +3819,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3793,7 +3829,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3813,22 +3849,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>105524805</v>
+        <v>95181707</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3841,40 +3877,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Ribbo, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>557707.6931877108</v>
+        <v>557628.5280401763</v>
       </c>
       <c r="R29" t="n">
-        <v>7313505.212126551</v>
+        <v>7313660.009347937</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3898,7 +3932,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3908,7 +3942,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3916,18 +3950,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>På rönn</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3946,10 +3974,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106068564</v>
+        <v>95181737</v>
       </c>
       <c r="B30" t="n">
-        <v>56395</v>
+        <v>89742</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3958,49 +3986,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>1506</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Nabbnäs, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>557341.094957336</v>
+        <v>557652.6369780133</v>
       </c>
       <c r="R30" t="n">
-        <v>7314415.254025667</v>
+        <v>7313660.496240489</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4024,7 +4045,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4034,7 +4055,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4066,7 +4087,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106068609</v>
+        <v>98386022</v>
       </c>
       <c r="B31" t="n">
         <v>56540</v>
@@ -4101,30 +4122,25 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Nabbnäs, Ly lm</t>
+          <t>Sorsele, Ly lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>557178.5243778926</v>
+        <v>557499.7120975225</v>
       </c>
       <c r="R31" t="n">
-        <v>7314676.100958445</v>
+        <v>7313662.311308526</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4148,7 +4164,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4158,7 +4174,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4190,7 +4206,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106181512</v>
+        <v>105524543</v>
       </c>
       <c r="B32" t="n">
         <v>56395</v>
@@ -4234,14 +4250,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Börtingtjärn, Ly lm</t>
+          <t>Ribbo, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>557563.1252945462</v>
+        <v>557722.2764535763</v>
       </c>
       <c r="R32" t="n">
-        <v>7313923.278383149</v>
+        <v>7313451.194894779</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4268,7 +4284,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4278,17 +4294,12 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Rinhack. Tämligen färskt</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4315,7 +4326,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106181822</v>
+        <v>105524498</v>
       </c>
       <c r="B33" t="n">
         <v>56395</v>
@@ -4353,23 +4364,23 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Börtingtjärn, Nabbnäs, Ly lm</t>
+          <t>Ribbo, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>557150.1442167946</v>
+        <v>557627.1049988176</v>
       </c>
       <c r="R33" t="n">
-        <v>7314562.870367996</v>
+        <v>7313224.253787322</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4393,7 +4404,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4403,7 +4414,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4435,10 +4446,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86238581</v>
+        <v>105524457</v>
       </c>
       <c r="B34" t="n">
-        <v>55504</v>
+        <v>56395</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4447,20 +4458,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>102931</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bläsand</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mareca penelope</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4468,36 +4479,28 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>obs i häcktid, lämplig biotop</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
+          <t>Ribbo, Ly lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>557511.0569535147</v>
+        <v>557498.2867395905</v>
       </c>
       <c r="R34" t="n">
-        <v>7314093.299974133</v>
+        <v>7313286.590600722</v>
       </c>
       <c r="S34" t="n">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4531,7 +4534,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4551,22 +4554,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Petter Nordvander</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Petter Nordvander</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111702865</v>
+        <v>105524805</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>78569</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4579,49 +4582,40 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Börtingtjärnen, Nabbnäs, Ly lm</t>
+          <t>Ribbo, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>557511</v>
+        <v>557707.6931877108</v>
       </c>
       <c r="R35" t="n">
-        <v>7314093</v>
+        <v>7313505.212126551</v>
       </c>
       <c r="S35" t="n">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4645,22 +4639,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4669,18 +4668,19 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Erik Owusu-Ansah</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Erik Owusu-Ansah</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
